--- a/IX_A_RESULT.xlsx
+++ b/IX_A_RESULT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>Vinod Singh</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>J Paul</t>
+  </si>
+  <si>
+    <t>S Dey</t>
   </si>
 </sst>
 </file>
@@ -404,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,6 +1195,128 @@
         <v>9</v>
       </c>
     </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>11</v>
+      </c>
+      <c r="F26">
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <v>18</v>
+      </c>
+      <c r="H26">
+        <v>36</v>
+      </c>
+      <c r="I26">
+        <v>30</v>
+      </c>
+      <c r="J26">
+        <v>29</v>
+      </c>
+      <c r="K26">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <v>31</v>
+      </c>
+      <c r="H27">
+        <v>50</v>
+      </c>
+      <c r="I27">
+        <v>31</v>
+      </c>
+      <c r="J27">
+        <v>27</v>
+      </c>
+      <c r="K27">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>18</v>
+      </c>
+      <c r="F28">
+        <v>12</v>
+      </c>
+      <c r="G28">
+        <v>51</v>
+      </c>
+      <c r="H28">
+        <v>90</v>
+      </c>
+      <c r="I28">
+        <v>51</v>
+      </c>
+      <c r="J28">
+        <v>51</v>
+      </c>
+      <c r="K28">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+      <c r="G29">
+        <v>9</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>9</v>
+      </c>
+      <c r="J29">
+        <v>9</v>
+      </c>
+      <c r="K29">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
